--- a/documentatie/use case tabel klant inschrijven.xlsx
+++ b/documentatie/use case tabel klant inschrijven.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\knapperige-knapen\documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90CE3529-21E6-4314-B79F-358830C5DD0D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{EE63DE78-E56A-4972-8141-D3F13C31288D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -63,28 +62,28 @@
     <t>de klant is ingeschreven in de database</t>
   </si>
   <si>
-    <t>klant gaat naar website</t>
-  </si>
-  <si>
-    <t>klant drukt op registreren</t>
-  </si>
-  <si>
-    <t>klant vult gegevens in</t>
-  </si>
-  <si>
-    <t>klant wordt in de database ingeschreven</t>
-  </si>
-  <si>
-    <t>klant vult onvoldoende informatie in</t>
-  </si>
-  <si>
-    <t>database offline</t>
+    <t>1. klant gaat naar website</t>
+  </si>
+  <si>
+    <t>2. klant drukt op registreren</t>
+  </si>
+  <si>
+    <t>3. klant vult gegevens in</t>
+  </si>
+  <si>
+    <t>4. klant wordt in de database ingeschreven</t>
+  </si>
+  <si>
+    <t>1. klant vult onvoldoende informatie in</t>
+  </si>
+  <si>
+    <t>2. database offline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -110,12 +109,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -429,92 +444,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA8BDF3-38B8-4A43-AE0A-1AF4DA421483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
